--- a/SMTO_Combined/Nested_Results.xlsx
+++ b/SMTO_Combined/Nested_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\SMTO_Combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD01D1-68F1-431A-B125-4BA0B1398918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD061A9-A288-49A3-AE12-1C1802AA4299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Ref</t>
   </si>
@@ -56,15 +56,6 @@
     <t>iv:2019</t>
   </si>
   <si>
-    <t>Prec</t>
-  </si>
-  <si>
-    <t>Rec</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Acc</t>
   </si>
   <si>
@@ -74,18 +65,6 @@
     <t>Log lik</t>
   </si>
   <si>
-    <t>2 Mus</t>
-  </si>
-  <si>
-    <t>1 Mu</t>
-  </si>
-  <si>
-    <t>2 Mus (cross)</t>
-  </si>
-  <si>
-    <t>1 Mu (cross)</t>
-  </si>
-  <si>
     <t>2019: all schools</t>
   </si>
   <si>
@@ -93,15 +72,31 @@
   </si>
   <si>
     <t>2019: 2019 schools</t>
+  </si>
+  <si>
+    <t>Parameter/Metric</t>
+  </si>
+  <si>
+    <t>Basic: 1 Mu</t>
+  </si>
+  <si>
+    <t>Basic: 2 Mus</t>
+  </si>
+  <si>
+    <t>Cross: 1 Mu2</t>
+  </si>
+  <si>
+    <t>Cross: 2 Mus3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,14 +137,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -157,7 +160,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -168,6 +175,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC209BFA-1C4B-4E23-93D3-E1BB066331EA}" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F10" xr:uid="{B5BFD291-4F09-4186-B2BD-0220E8A6B60C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E35FE2D6-C98B-4B1C-B05C-4B1ECEEFEDA5}" name="Parameter/Metric"/>
+    <tableColumn id="2" xr3:uid="{E438C0CB-FC4B-407E-8471-A1D5A99D16E5}" name="Ref"/>
+    <tableColumn id="3" xr3:uid="{A21DD351-631D-405A-9D11-5C9767C212F4}" name="Basic: 1 Mu"/>
+    <tableColumn id="4" xr3:uid="{FCAD6AB5-3A45-4FEB-8B17-0C36141DB605}" name="Basic: 2 Mus"/>
+    <tableColumn id="5" xr3:uid="{77F8531E-7C5D-4D48-B036-E78DEB9132BB}" name="Cross: 1 Mu2"/>
+    <tableColumn id="6" xr3:uid="{006AEDB5-39B3-4CDE-BCB9-3C635CC75686}" name="Cross: 2 Mus3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,32 +455,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176BA65C-B7FE-4968-B16F-0B343103D26E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -474,7 +500,8 @@
       <c r="D2" s="2">
         <v>-0.1082854</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
         <v>-0.1086511</v>
       </c>
     </row>
@@ -491,6 +518,8 @@
       <c r="D3" s="2">
         <v>1.3808172000000001</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -505,6 +534,8 @@
       <c r="D4" s="2">
         <v>1.7599735999999999</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -519,21 +550,24 @@
       <c r="D5" s="2">
         <v>3.6754599999999998E-2</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4">
         <v>1.6533734</v>
       </c>
       <c r="D6" s="3">
         <v>1.5857540000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.98062689999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>1.4497707</v>
       </c>
     </row>
@@ -541,12 +575,13 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3">
         <v>1.4040155000000001</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>1.2962864999999999</v>
       </c>
     </row>
@@ -554,135 +589,119 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.22364829999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.1999368</v>
-      </c>
-      <c r="E8">
-        <v>0.2133968</v>
-      </c>
-      <c r="F8">
-        <v>0.21339569999999999</v>
+      <c r="B8" s="6">
+        <v>0.40185199999999999</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.4015939</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.40188420000000002</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.4020456</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.40178740000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.1489936</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.14967340000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.14520340000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.14463699999999999</v>
+      <c r="B9" s="6">
+        <v>0.28476639999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.28512330000000002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.2828273</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.2857828</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.28499229999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.15057400000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.15157229999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.14488500000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.14458399999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10" s="5">
+        <v>-54354.96</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-53672.15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-53557.31</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-53418.71</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-53392.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.40185199999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.4015939</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.40188420000000002</v>
-      </c>
-      <c r="E11">
-        <v>0.4020456</v>
-      </c>
-      <c r="F11">
-        <v>0.40178740000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.28476639999999998</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.28512330000000002</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.2828273</v>
-      </c>
-      <c r="E12">
-        <v>0.2857828</v>
-      </c>
-      <c r="F12">
-        <v>0.28499229999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-54354.96</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-53672.15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>-53557.31</v>
-      </c>
-      <c r="E13">
-        <v>-53418.71</v>
-      </c>
-      <c r="F13">
-        <v>-53392.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-  </mergeCells>
+  <conditionalFormatting sqref="B8:F8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:F9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:F10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>